--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,97</t>
+          <t>-1,58; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,44</t>
+          <t>-3,47; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,74</t>
+          <t>2,94; 12,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,28</t>
+          <t>-6,59; 1,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,04</t>
+          <t>-8,26; 0,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,96</t>
+          <t>-1,26; 6,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,97</t>
+          <t>-3,15; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,0</t>
+          <t>-5,09; 1,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,94</t>
+          <t>2,43; 8,52</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 22,78</t>
+          <t>-4,81; 23,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 17,74</t>
+          <t>-10,06; 17,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 41,06</t>
+          <t>8,68; 41,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 2,64</t>
+          <t>-12,89; 2,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -0,02</t>
+          <t>-16,1; 0,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 14,29</t>
+          <t>-2,47; 14,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,24</t>
+          <t>-7,32; 6,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 2,49</t>
+          <t>-12,03; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,93</t>
+          <t>5,62; 20,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,95</t>
+          <t>0,24; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,25</t>
+          <t>2,38; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,51</t>
+          <t>4,45; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,11</t>
+          <t>-2,01; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,1</t>
+          <t>-1,12; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,84</t>
+          <t>-2,16; 3,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,99</t>
+          <t>-0,24; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,38</t>
+          <t>1,35; 4,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,51</t>
+          <t>2,1; 5,67</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 55,85</t>
+          <t>2,58; 60,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 90,66</t>
+          <t>25,59; 92,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 122,03</t>
+          <t>49,18; 122,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 22,27</t>
+          <t>-11,72; 22,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 27,75</t>
+          <t>-6,98; 27,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 26,87</t>
+          <t>-12,4; 26,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 27,77</t>
+          <t>-1,91; 26,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 40,24</t>
+          <t>10,55; 40,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 50,66</t>
+          <t>17,44; 52,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,42</t>
+          <t>-5,55; 1,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 0,63</t>
+          <t>-5,77; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,25</t>
+          <t>-1,2; 5,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -2,65</t>
+          <t>-10,52; -2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -0,08</t>
+          <t>-8,4; -0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 0,01</t>
+          <t>-8,15; -0,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,22</t>
+          <t>-7,04; -1,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -0,66</t>
+          <t>-5,89; -0,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,0</t>
+          <t>-3,39; 1,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 23,4</t>
+          <t>-55,97; 27,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 12,03</t>
+          <t>-56,94; 14,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 78,37</t>
+          <t>-12,07; 82,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,55; -20,82</t>
+          <t>-64,12; -18,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 0,09</t>
+          <t>-50,56; 0,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 0,84</t>
+          <t>-46,37; -3,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,82; -12,0</t>
+          <t>-55,77; -11,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,99; -6,4</t>
+          <t>-47,24; -4,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 22,0</t>
+          <t>-26,01; 16,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,71</t>
+          <t>-0,8; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,93</t>
+          <t>-1,68; 2,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,07</t>
+          <t>0,21; 3,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,07</t>
+          <t>-4,16; 0,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -2,71</t>
+          <t>-6,92; -2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -3,2</t>
+          <t>-8,16; -3,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,0</t>
+          <t>-1,92; 1,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,83</t>
+          <t>-3,67; -0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -0,0</t>
+          <t>-2,99; -0,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 18,93</t>
+          <t>-4,75; 19,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 13,08</t>
+          <t>-10,29; 13,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 27,21</t>
+          <t>1,39; 26,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 0,4</t>
+          <t>-14,0; 1,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -9,56</t>
+          <t>-23,05; -9,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,17; -11,56</t>
+          <t>-26,92; -11,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 4,62</t>
+          <t>-8,31; 4,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -3,84</t>
+          <t>-16,14; -3,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -0,05</t>
+          <t>-13,02; -0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,97</t>
+          <t>-1,51; 7,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 5,21</t>
+          <t>-3,71; 5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 12,38</t>
+          <t>2,77; 12,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 1,1</t>
+          <t>-6,72; 1,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,24</t>
+          <t>-8,48; 0,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,84</t>
+          <t>-1,67; 6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,52</t>
+          <t>-3,04; 2,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 1,24</t>
+          <t>-4,87; 1,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,52</t>
+          <t>2,58; 8,86</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 23,41</t>
+          <t>-4,21; 25,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 17,87</t>
+          <t>-10,62; 17,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 41,33</t>
+          <t>8,8; 41,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 2,29</t>
+          <t>-13,2; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 0,48</t>
+          <t>-16,61; 0,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 14,24</t>
+          <t>-3,29; 14,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 6,16</t>
+          <t>-7,04; 7,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 3,1</t>
+          <t>-11,16; 3,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 20,9</t>
+          <t>6,12; 22,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,13</t>
+          <t>-0,01; 3,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,31</t>
+          <t>2,02; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,68</t>
+          <t>4,06; 8,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,22</t>
+          <t>-1,99; 3,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,04</t>
+          <t>-0,96; 3,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,85</t>
+          <t>-1,52; 4,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,95</t>
+          <t>-0,2; 2,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,39</t>
+          <t>1,39; 4,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,67</t>
+          <t>2,24; 5,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 60,32</t>
+          <t>-0,17; 57,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 92,81</t>
+          <t>21,95; 85,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,18; 122,64</t>
+          <t>46,04; 118,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 22,18</t>
+          <t>-11,45; 21,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 27,47</t>
+          <t>-5,61; 27,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 26,81</t>
+          <t>-8,89; 28,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 26,94</t>
+          <t>-1,73; 26,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 40,77</t>
+          <t>11,06; 41,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 52,91</t>
+          <t>18,72; 54,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,45</t>
+          <t>-5,39; 1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 0,88</t>
+          <t>-5,78; 0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,44</t>
+          <t>-1,34; 5,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,33</t>
+          <t>-10,78; -2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; -0,14</t>
+          <t>-8,68; -0,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -0,42</t>
+          <t>-8,06; -0,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -1,24</t>
+          <t>-6,97; -1,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,48</t>
+          <t>-6,06; -0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,62</t>
+          <t>-3,24; 1,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 27,02</t>
+          <t>-56,42; 27,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 14,95</t>
+          <t>-56,0; 8,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 82,36</t>
+          <t>-14,16; 86,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,12; -18,03</t>
+          <t>-64,0; -19,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,56; 0,2</t>
+          <t>-51,27; -0,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,37; -3,2</t>
+          <t>-47,16; -3,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,77; -11,53</t>
+          <t>-55,69; -15,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -4,52</t>
+          <t>-47,4; -5,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 16,73</t>
+          <t>-25,57; 20,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,92</t>
+          <t>-0,93; 2,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,0</t>
+          <t>-1,6; 1,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,85</t>
+          <t>0,19; 3,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,3</t>
+          <t>-4,28; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -2,83</t>
+          <t>-6,93; -2,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -3,19</t>
+          <t>-7,91; -3,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,07</t>
+          <t>-1,91; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -0,8</t>
+          <t>-3,63; -0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; -0,05</t>
+          <t>-2,96; 0,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 19,67</t>
+          <t>-5,58; 19,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 13,4</t>
+          <t>-9,58; 12,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 26,47</t>
+          <t>1,1; 26,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 1,15</t>
+          <t>-14,41; 1,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,05; -9,98</t>
+          <t>-23,65; -8,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,92; -11,67</t>
+          <t>-26,75; -11,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 4,99</t>
+          <t>-8,15; 3,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; -3,73</t>
+          <t>-15,8; -3,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -0,25</t>
+          <t>-12,93; 0,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 7,52</t>
+          <t>-1,62; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,26</t>
+          <t>-3,59; 5,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 12,58</t>
+          <t>3,15; 12,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 1,33</t>
+          <t>-6,48; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,18</t>
+          <t>-8,5; 0,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,94</t>
+          <t>-1,11; 6,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,88</t>
+          <t>-3,03; 2,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,46</t>
+          <t>-5,07; 1,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,86</t>
+          <t>2,28; 8,94</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 25,13</t>
+          <t>-4,94; 22,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 17,5</t>
+          <t>-10,79; 17,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 41,92</t>
+          <t>8,06; 41,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 2,74</t>
+          <t>-12,87; 2,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 0,39</t>
+          <t>-16,31; -0,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 14,61</t>
+          <t>-2,37; 14,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 7,11</t>
+          <t>-7,05; 7,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 3,59</t>
+          <t>-11,79; 2,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 22,22</t>
+          <t>5,44; 21,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,98</t>
+          <t>0,29; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,14</t>
+          <t>2,22; 6,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,45</t>
+          <t>4,36; 8,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,14</t>
+          <t>-2,23; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,87</t>
+          <t>-0,89; 4,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,07</t>
+          <t>-2,11; 3,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,91</t>
+          <t>-0,2; 2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,46</t>
+          <t>1,08; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,81</t>
+          <t>2,11; 5,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 57,03</t>
+          <t>2,69; 55,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 85,39</t>
+          <t>24,06; 90,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,04; 118,77</t>
+          <t>49,2; 122,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 21,82</t>
+          <t>-12,89; 22,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 27,0</t>
+          <t>-5,45; 27,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 28,23</t>
+          <t>-11,82; 26,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 26,98</t>
+          <t>-1,66; 27,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 41,31</t>
+          <t>8,75; 40,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 54,26</t>
+          <t>16,9; 50,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,67</t>
+          <t>-5,95; 1,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,39</t>
+          <t>-6,2; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,61</t>
+          <t>-1,46; 5,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -2,69</t>
+          <t>-11,2; -2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -0,18</t>
+          <t>-8,7; -0,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,35</t>
+          <t>-8,01; 0,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -1,6</t>
+          <t>-6,85; -1,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,59</t>
+          <t>-6,19; -0,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,87</t>
+          <t>-2,9; 2,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 27,19</t>
+          <t>-59,34; 23,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 8,24</t>
+          <t>-58,64; 12,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 86,9</t>
+          <t>-14,38; 78,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -19,59</t>
+          <t>-67,55; -20,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,27; -0,07</t>
+          <t>-52,6; 0,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,16; -3,07</t>
+          <t>-46,11; 0,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,69; -15,66</t>
+          <t>-55,82; -12,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,4; -5,06</t>
+          <t>-47,99; -6,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 20,24</t>
+          <t>-23,36; 22,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,88</t>
+          <t>-0,9; 2,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,87</t>
+          <t>-1,74; 1,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,92</t>
+          <t>0,27; 4,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,4</t>
+          <t>-4,25; 0,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -2,44</t>
+          <t>-6,94; -2,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -3,08</t>
+          <t>-8,13; -3,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,8</t>
+          <t>-1,97; 1,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,83</t>
+          <t>-3,68; -0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,04</t>
+          <t>-3,12; -0,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 19,7</t>
+          <t>-5,35; 18,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 12,68</t>
+          <t>-10,34; 13,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 26,43</t>
+          <t>1,61; 27,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 1,43</t>
+          <t>-14,22; 0,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,65; -8,91</t>
+          <t>-23,47; -9,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,75; -11,17</t>
+          <t>-27,17; -11,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 3,7</t>
+          <t>-8,62; 4,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -3,79</t>
+          <t>-16,12; -3,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 0,24</t>
+          <t>-13,56; -0,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,74</t>
+          <t>2,66; 12,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,96</t>
+          <t>-1,11; 6,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,94</t>
+          <t>2,04; 8,65</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 41,06</t>
+          <t>7,06; 39,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 14,29</t>
+          <t>-2,1; 14,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,93</t>
+          <t>4,69; 21,3</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,51</t>
+          <t>1,32; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,84</t>
+          <t>-4,92; 3,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,51</t>
+          <t>-0,19; 4,72</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 122,03</t>
+          <t>19,05; 103,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 26,87</t>
+          <t>-29,73; 22,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 50,66</t>
+          <t>-1,58; 42,14</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,58</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,25</t>
+          <t>-1,3; 5,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 0,01</t>
+          <t>-8,1; -0,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,0</t>
+          <t>-2,9; 2,04</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,09%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-5,22%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 78,37</t>
+          <t>-12,72; 79,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 0,84</t>
+          <t>-45,93; 0,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 22,0</t>
+          <t>-23,38; 21,86</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,71</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,07</t>
+          <t>-3,05; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -3,2</t>
+          <t>-10,62; -3,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -0,0</t>
+          <t>-5,48; -0,93</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-12,2%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 27,21</t>
+          <t>-18,46; 20,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,17; -11,56</t>
+          <t>-36,49; -13,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -0,05</t>
+          <t>-24,15; -4,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,97</t>
+          <t>-1,42; 6,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,44</t>
+          <t>-3,9; 5,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,34</t>
+          <t>2,17; 12,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,28</t>
+          <t>-6,75; 1,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,04</t>
+          <t>-8,59; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,69</t>
+          <t>-1,16; 6,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,97</t>
+          <t>-3,2; 2,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,0</t>
+          <t>-5,0; 1,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,65</t>
+          <t>2,03; 8,34</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 22,78</t>
+          <t>-4,35; 22,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 17,74</t>
+          <t>-11,33; 16,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 39,99</t>
+          <t>6,34; 40,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 2,64</t>
+          <t>-13,14; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -0,02</t>
+          <t>-16,76; 0,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,33</t>
+          <t>-2,27; 13,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 7,24</t>
+          <t>-7,33; 6,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 2,49</t>
+          <t>-11,54; 3,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 21,3</t>
+          <t>4,82; 20,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,95</t>
+          <t>0,39; 4,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,25</t>
+          <t>2,4; 6,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,51</t>
+          <t>1,04; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,11</t>
+          <t>-2,13; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,1</t>
+          <t>-0,95; 3,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,32</t>
+          <t>-4,57; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,99</t>
+          <t>-0,28; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,38</t>
+          <t>1,35; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,72</t>
+          <t>-0,23; 4,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 55,85</t>
+          <t>3,78; 61,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 90,66</t>
+          <t>27,27; 91,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 103,49</t>
+          <t>13,27; 102,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 22,27</t>
+          <t>-12,81; 21,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 27,75</t>
+          <t>-5,63; 27,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 22,01</t>
+          <t>-27,91; 21,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 27,77</t>
+          <t>-2,25; 26,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 40,24</t>
+          <t>10,89; 41,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 42,14</t>
+          <t>-1,69; 43,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,42</t>
+          <t>-5,65; 1,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 0,63</t>
+          <t>-6,33; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,47</t>
+          <t>-1,38; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -2,65</t>
+          <t>-10,87; -2,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -0,08</t>
+          <t>-8,36; -0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; -0,16</t>
+          <t>-8,07; -0,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -1,22</t>
+          <t>-6,69; -1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -0,66</t>
+          <t>-6,01; -0,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,04</t>
+          <t>-3,34; 1,79</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 23,4</t>
+          <t>-56,98; 27,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 12,03</t>
+          <t>-58,68; 12,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 79,74</t>
+          <t>-13,78; 78,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,55; -20,82</t>
+          <t>-65,05; -18,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 0,09</t>
+          <t>-51,77; -0,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 0,45</t>
+          <t>-45,62; -2,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,82; -12,0</t>
+          <t>-53,77; -13,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,99; -6,4</t>
+          <t>-47,18; -5,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 21,86</t>
+          <t>-25,8; 19,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,71</t>
+          <t>-0,88; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,93</t>
+          <t>-1,64; 1,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,08</t>
+          <t>-2,46; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,07</t>
+          <t>-4,11; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -2,71</t>
+          <t>-7,03; -2,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -3,8</t>
+          <t>-10,54; -3,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,0</t>
+          <t>-1,9; 0,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,83</t>
+          <t>-3,74; -0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -0,93</t>
+          <t>-5,24; -0,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 18,93</t>
+          <t>-5,26; 19,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 13,08</t>
+          <t>-10,08; 13,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 20,15</t>
+          <t>-15,72; 21,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 0,4</t>
+          <t>-13,63; 0,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -9,56</t>
+          <t>-23,26; -9,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; -13,89</t>
+          <t>-36,35; -13,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 4,62</t>
+          <t>-8,27; 3,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -3,84</t>
+          <t>-16,22; -3,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,15; -4,35</t>
+          <t>-23,4; -4,19</t>
         </is>
       </c>
     </row>
